--- a/小野先生からの提供分/令和3年度 第3Q_Excel入門 解答.xlsx
+++ b/小野先生からの提供分/令和3年度 第3Q_Excel入門 解答.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr hidePivotFieldList="1" defaultThemeVersion="164011"/>
+  <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nishikidosyun\Documents\パソコン操作\◆試験問題◆\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\快活CLUB\Desktop\ExcelSpreadsheet2022\小野先生からの提供分\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12204" windowHeight="8712" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="問題１" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId9"/>
+    <pivotCache cacheId="10" r:id="rId9"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -3380,6 +3380,9 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3389,17 +3392,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3407,8 +3407,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4514,7 +4514,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[令和元年度 後期中華表を試験.xlsx]Sheet1!ピボットテーブル1</c:name>
+    <c:name>[令和3年度 第3Q_Excel入門 解答.xlsx]Sheet1!ピボットテーブル1</c:name>
     <c:fmtId val="1"/>
   </c:pivotSource>
   <c:chart>
@@ -4687,6 +4687,66 @@
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="11"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="12"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="13"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="14"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="15"/>
         <c:spPr>
           <a:solidFill>
             <a:schemeClr val="accent1"/>
@@ -5121,7 +5181,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6935,9 +6994,9 @@
 
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr/>
+  <sheetPr codeName="Graph6"/>
   <sheetViews>
-    <sheetView zoomScale="90" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="117" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -6983,7 +7042,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9296400" cy="6070600"/>
+    <xdr:ext cx="9297051" cy="6073205"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="グラフ 1"/>
@@ -7028,8 +7087,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="668867" y="731520"/>
-          <a:ext cx="8498840" cy="5188373"/>
+          <a:off x="687917" y="746337"/>
+          <a:ext cx="8727440" cy="5480473"/>
           <a:chOff x="668867" y="731520"/>
           <a:chExt cx="8498840" cy="5188373"/>
         </a:xfrm>
@@ -7754,8 +7813,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="694268" y="27872267"/>
-          <a:ext cx="9380952" cy="6392333"/>
+          <a:off x="713318" y="29593117"/>
+          <a:ext cx="9647652" cy="6788149"/>
           <a:chOff x="694268" y="27872267"/>
           <a:chExt cx="9380952" cy="6392333"/>
         </a:xfrm>
@@ -7915,8 +7974,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="668867" y="43467864"/>
-          <a:ext cx="10171428" cy="7704669"/>
+          <a:off x="687917" y="46168731"/>
+          <a:ext cx="10457178" cy="8208436"/>
           <a:chOff x="668867" y="38210064"/>
           <a:chExt cx="10171428" cy="7704669"/>
         </a:xfrm>
@@ -9228,7 +9287,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ピボットテーブル1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="値" missingCaption="0" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2" rowHeaderCaption="飲みやすさ" colHeaderCaption="職業">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ピボットテーブル1" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="値" missingCaption="0" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2" rowHeaderCaption="飲みやすさ" colHeaderCaption="職業">
   <location ref="A3:F9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="7">
     <pivotField dataField="1" showAll="0"/>
@@ -9593,25 +9652,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="B2:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.4">
       <c r="J3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.4">
       <c r="C4" t="s">
         <v>16</v>
       </c>
@@ -9637,7 +9697,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
         <v>11</v>
       </c>
@@ -9660,7 +9720,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
         <v>12</v>
       </c>
@@ -9683,7 +9743,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B7" t="s">
         <v>13</v>
       </c>
@@ -9706,7 +9766,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
         <v>5</v>
       </c>
@@ -9729,7 +9789,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B9" t="s">
         <v>6</v>
       </c>
@@ -9752,12 +9812,12 @@
         <v>804</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
         <v>15</v>
       </c>
@@ -9770,35 +9830,36 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="B1:G8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="2.69921875" customWidth="1"/>
-    <col min="2" max="2" width="15.09765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="13.59765625" customWidth="1"/>
+    <col min="1" max="1" width="2.75" customWidth="1"/>
+    <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="13.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="22.2" x14ac:dyDescent="0.45">
-      <c r="B1" s="25" t="s">
+    <row r="1" spans="2:7" ht="24" x14ac:dyDescent="0.4">
+      <c r="B1" s="26" t="s">
         <v>260</v>
       </c>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-    </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+    </row>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.4">
       <c r="G2" s="11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B3" s="19"/>
       <c r="C3" s="20" t="s">
         <v>261</v>
@@ -9816,7 +9877,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B4" s="21" t="s">
         <v>265</v>
       </c>
@@ -9837,7 +9898,7 @@
         <v>18400</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B5" s="21" t="s">
         <v>266</v>
       </c>
@@ -9858,7 +9919,7 @@
         <v>11700</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B6" s="21" t="s">
         <v>267</v>
       </c>
@@ -9879,7 +9940,7 @@
         <v>11900</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B7" s="21" t="s">
         <v>268</v>
       </c>
@@ -9900,7 +9961,7 @@
         <v>11100</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B8" s="20" t="s">
         <v>14</v>
       </c>
@@ -9936,36 +9997,37 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A2:G107"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.19921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.25" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" ht="22.8" x14ac:dyDescent="0.45">
-      <c r="A2" s="26" t="s">
+    <row r="2" spans="1:7" ht="23.25" x14ac:dyDescent="0.4">
+      <c r="A2" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="G3" s="11" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="15" t="s">
         <v>120</v>
       </c>
@@ -9988,7 +10050,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>127</v>
       </c>
@@ -10011,7 +10073,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>133</v>
       </c>
@@ -10034,7 +10096,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>139</v>
       </c>
@@ -10057,7 +10119,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>142</v>
       </c>
@@ -10080,7 +10142,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>144</v>
       </c>
@@ -10103,7 +10165,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>146</v>
       </c>
@@ -10126,7 +10188,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
         <v>147</v>
       </c>
@@ -10149,7 +10211,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
         <v>150</v>
       </c>
@@ -10172,7 +10234,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
         <v>152</v>
       </c>
@@ -10195,7 +10257,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
         <v>153</v>
       </c>
@@ -10218,7 +10280,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
         <v>155</v>
       </c>
@@ -10241,7 +10303,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
         <v>156</v>
       </c>
@@ -10264,7 +10326,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
         <v>157</v>
       </c>
@@ -10287,7 +10349,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
         <v>158</v>
       </c>
@@ -10310,7 +10372,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
         <v>159</v>
       </c>
@@ -10333,7 +10395,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
         <v>160</v>
       </c>
@@ -10356,7 +10418,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
         <v>161</v>
       </c>
@@ -10379,7 +10441,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
         <v>162</v>
       </c>
@@ -10402,7 +10464,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
         <v>163</v>
       </c>
@@ -10425,7 +10487,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
         <v>164</v>
       </c>
@@ -10448,7 +10510,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
         <v>165</v>
       </c>
@@ -10471,7 +10533,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
         <v>166</v>
       </c>
@@ -10494,7 +10556,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
         <v>167</v>
       </c>
@@ -10517,7 +10579,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A29" s="1" t="s">
         <v>168</v>
       </c>
@@ -10540,7 +10602,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A30" s="1" t="s">
         <v>169</v>
       </c>
@@ -10563,7 +10625,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A31" s="1" t="s">
         <v>170</v>
       </c>
@@ -10586,7 +10648,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A32" s="1" t="s">
         <v>171</v>
       </c>
@@ -10609,7 +10671,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A33" s="1" t="s">
         <v>172</v>
       </c>
@@ -10632,7 +10694,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A34" s="1" t="s">
         <v>173</v>
       </c>
@@ -10655,7 +10717,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A35" s="1" t="s">
         <v>174</v>
       </c>
@@ -10678,7 +10740,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A36" s="1" t="s">
         <v>175</v>
       </c>
@@ -10701,7 +10763,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A37" s="1" t="s">
         <v>176</v>
       </c>
@@ -10724,7 +10786,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A38" s="1" t="s">
         <v>177</v>
       </c>
@@ -10747,7 +10809,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A39" s="1" t="s">
         <v>178</v>
       </c>
@@ -10770,7 +10832,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A40" s="1" t="s">
         <v>179</v>
       </c>
@@ -10793,7 +10855,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A41" s="1" t="s">
         <v>180</v>
       </c>
@@ -10816,7 +10878,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A42" s="1" t="s">
         <v>181</v>
       </c>
@@ -10839,7 +10901,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A43" s="1" t="s">
         <v>182</v>
       </c>
@@ -10862,7 +10924,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A44" s="1" t="s">
         <v>183</v>
       </c>
@@ -10885,7 +10947,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A45" s="1" t="s">
         <v>184</v>
       </c>
@@ -10908,7 +10970,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A46" s="1" t="s">
         <v>185</v>
       </c>
@@ -10931,7 +10993,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A47" s="1" t="s">
         <v>186</v>
       </c>
@@ -10954,7 +11016,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A48" s="1" t="s">
         <v>187</v>
       </c>
@@ -10977,7 +11039,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A49" s="1" t="s">
         <v>188</v>
       </c>
@@ -11000,7 +11062,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A50" s="1" t="s">
         <v>189</v>
       </c>
@@ -11023,7 +11085,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A51" s="1" t="s">
         <v>190</v>
       </c>
@@ -11046,7 +11108,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A52" s="1" t="s">
         <v>191</v>
       </c>
@@ -11069,7 +11131,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A53" s="1" t="s">
         <v>192</v>
       </c>
@@ -11092,7 +11154,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A54" s="1" t="s">
         <v>193</v>
       </c>
@@ -11115,7 +11177,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A55" s="1" t="s">
         <v>194</v>
       </c>
@@ -11138,7 +11200,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A56" s="1" t="s">
         <v>195</v>
       </c>
@@ -11161,7 +11223,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A57" s="1" t="s">
         <v>196</v>
       </c>
@@ -11184,7 +11246,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A58" s="1" t="s">
         <v>197</v>
       </c>
@@ -11207,7 +11269,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A59" s="1" t="s">
         <v>198</v>
       </c>
@@ -11230,7 +11292,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A60" s="1" t="s">
         <v>199</v>
       </c>
@@ -11253,7 +11315,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A61" s="1" t="s">
         <v>200</v>
       </c>
@@ -11276,7 +11338,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A62" s="1" t="s">
         <v>201</v>
       </c>
@@ -11299,7 +11361,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A63" s="1" t="s">
         <v>202</v>
       </c>
@@ -11322,7 +11384,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A64" s="1" t="s">
         <v>203</v>
       </c>
@@ -11345,7 +11407,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A65" s="1" t="s">
         <v>204</v>
       </c>
@@ -11368,7 +11430,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A66" s="1" t="s">
         <v>205</v>
       </c>
@@ -11391,7 +11453,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A67" s="1" t="s">
         <v>206</v>
       </c>
@@ -11414,7 +11476,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A68" s="1" t="s">
         <v>207</v>
       </c>
@@ -11437,7 +11499,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A69" s="1" t="s">
         <v>208</v>
       </c>
@@ -11460,7 +11522,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A70" s="1" t="s">
         <v>209</v>
       </c>
@@ -11483,7 +11545,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A71" s="1" t="s">
         <v>210</v>
       </c>
@@ -11506,7 +11568,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A72" s="1" t="s">
         <v>211</v>
       </c>
@@ -11529,7 +11591,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A73" s="1" t="s">
         <v>212</v>
       </c>
@@ -11552,7 +11614,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A74" s="1" t="s">
         <v>213</v>
       </c>
@@ -11575,7 +11637,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A75" s="1" t="s">
         <v>214</v>
       </c>
@@ -11598,7 +11660,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A76" s="1" t="s">
         <v>215</v>
       </c>
@@ -11621,7 +11683,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A77" s="1" t="s">
         <v>216</v>
       </c>
@@ -11644,7 +11706,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A78" s="1" t="s">
         <v>217</v>
       </c>
@@ -11667,7 +11729,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A79" s="1" t="s">
         <v>218</v>
       </c>
@@ -11690,7 +11752,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A80" s="1" t="s">
         <v>219</v>
       </c>
@@ -11713,7 +11775,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A81" s="1" t="s">
         <v>220</v>
       </c>
@@ -11736,7 +11798,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A82" s="1" t="s">
         <v>221</v>
       </c>
@@ -11759,7 +11821,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A83" s="1" t="s">
         <v>222</v>
       </c>
@@ -11782,7 +11844,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A84" s="1" t="s">
         <v>223</v>
       </c>
@@ -11805,7 +11867,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A85" s="1" t="s">
         <v>224</v>
       </c>
@@ -11828,7 +11890,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A86" s="1" t="s">
         <v>225</v>
       </c>
@@ -11851,7 +11913,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A87" s="1" t="s">
         <v>226</v>
       </c>
@@ -11874,7 +11936,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A88" s="1" t="s">
         <v>227</v>
       </c>
@@ -11897,7 +11959,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A89" s="1" t="s">
         <v>228</v>
       </c>
@@ -11920,7 +11982,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A90" s="1" t="s">
         <v>229</v>
       </c>
@@ -11943,7 +12005,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A91" s="1" t="s">
         <v>230</v>
       </c>
@@ -11966,7 +12028,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A92" s="1" t="s">
         <v>231</v>
       </c>
@@ -11989,7 +12051,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A93" s="1" t="s">
         <v>232</v>
       </c>
@@ -12012,7 +12074,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A94" s="1" t="s">
         <v>233</v>
       </c>
@@ -12035,7 +12097,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A95" s="1" t="s">
         <v>234</v>
       </c>
@@ -12058,7 +12120,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A96" s="1" t="s">
         <v>235</v>
       </c>
@@ -12081,7 +12143,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A97" s="1" t="s">
         <v>236</v>
       </c>
@@ -12104,7 +12166,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A98" s="1" t="s">
         <v>237</v>
       </c>
@@ -12127,7 +12189,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A99" s="1" t="s">
         <v>238</v>
       </c>
@@ -12150,7 +12212,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A100" s="1" t="s">
         <v>239</v>
       </c>
@@ -12173,7 +12235,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A101" s="1" t="s">
         <v>240</v>
       </c>
@@ -12196,7 +12258,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A102" s="1" t="s">
         <v>241</v>
       </c>
@@ -12219,7 +12281,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A103" s="1" t="s">
         <v>242</v>
       </c>
@@ -12242,7 +12304,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A104" s="1" t="s">
         <v>243</v>
       </c>
@@ -12265,7 +12327,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A105" s="1" t="s">
         <v>244</v>
       </c>
@@ -12288,7 +12350,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A106" s="1" t="s">
         <v>245</v>
       </c>
@@ -12311,7 +12373,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A107" s="1" t="s">
         <v>246</v>
       </c>
@@ -12345,39 +12407,40 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="B2:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:J2"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="3.69921875" customWidth="1"/>
-    <col min="2" max="2" width="12.3984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="8" width="6.69921875" customWidth="1"/>
-    <col min="10" max="10" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.75" customWidth="1"/>
+    <col min="2" max="2" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="8" width="6.75" customWidth="1"/>
+    <col min="10" max="10" width="10.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="19.2" x14ac:dyDescent="0.45">
-      <c r="B2" s="27" t="s">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B2" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.4">
       <c r="J3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B4" s="3"/>
       <c r="C4" s="6" t="s">
         <v>16</v>
@@ -12404,7 +12467,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
@@ -12435,7 +12498,7 @@
         <v>0.28545843202957999</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
@@ -12466,7 +12529,7 @@
         <v>0.10035241781732047</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B7" s="2" t="s">
         <v>13</v>
       </c>
@@ -12497,7 +12560,7 @@
         <v>0.19660292333468138</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
@@ -12528,7 +12591,7 @@
         <v>0.15679704200127101</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B9" s="2" t="s">
         <v>17</v>
       </c>
@@ -12559,7 +12622,7 @@
         <v>4.8009705933329483E-2</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B10" s="2" t="s">
         <v>6</v>
       </c>
@@ -12590,7 +12653,7 @@
         <v>0.21277947888381768</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B11" s="2" t="s">
         <v>14</v>
       </c>
@@ -12627,7 +12690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B12" s="2" t="s">
         <v>15</v>
       </c>
@@ -12673,35 +12736,36 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="B1:G8"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="2.69921875" customWidth="1"/>
-    <col min="2" max="2" width="15.09765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="13.59765625" customWidth="1"/>
+    <col min="1" max="1" width="2.75" customWidth="1"/>
+    <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="13.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="22.2" x14ac:dyDescent="0.45">
-      <c r="B1" s="25" t="s">
+    <row r="1" spans="2:7" ht="24" x14ac:dyDescent="0.4">
+      <c r="B1" s="26" t="s">
         <v>260</v>
       </c>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-    </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+    </row>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.4">
       <c r="G2" s="11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B3" s="19"/>
       <c r="C3" s="20" t="s">
         <v>261</v>
@@ -12719,7 +12783,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B4" s="21" t="s">
         <v>265</v>
       </c>
@@ -12740,7 +12804,7 @@
         <v>18400</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B5" s="21" t="s">
         <v>266</v>
       </c>
@@ -12761,7 +12825,7 @@
         <v>11700</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B6" s="21" t="s">
         <v>267</v>
       </c>
@@ -12782,7 +12846,7 @@
         <v>11900</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B7" s="21" t="s">
         <v>268</v>
       </c>
@@ -12803,7 +12867,7 @@
         <v>11100</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B8" s="20" t="s">
         <v>14</v>
       </c>
@@ -12840,48 +12904,49 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:R359"/>
   <sheetViews>
     <sheetView topLeftCell="A343" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="B359" sqref="B359"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:16" ht="30" x14ac:dyDescent="0.45">
-      <c r="B1" s="28" t="s">
+    <row r="1" spans="1:16" ht="30" x14ac:dyDescent="0.4">
+      <c r="B1" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.4">
       <c r="N2" s="30" t="s">
         <v>21</v>
       </c>
       <c r="O2" s="30"/>
       <c r="P2" s="30"/>
     </row>
-    <row r="3" spans="1:16" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:16" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>18</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="29" t="s">
+      <c r="G3" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="29"/>
+      <c r="H3" s="31"/>
       <c r="J3" s="9" t="s">
         <v>27</v>
       </c>
@@ -12889,28 +12954,28 @@
       <c r="O3" s="30"/>
       <c r="P3" s="30"/>
     </row>
-    <row r="4" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="N4" s="30"/>
       <c r="O4" s="30"/>
       <c r="P4" s="30"/>
     </row>
-    <row r="5" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="N5" s="30"/>
       <c r="O5" s="30"/>
       <c r="P5" s="30"/>
     </row>
-    <row r="16" spans="1:16" ht="18.600000000000001" x14ac:dyDescent="0.45">
-      <c r="O16" s="31" t="s">
+    <row r="16" spans="1:16" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="O16" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="P16" s="31"/>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="P16" s="29"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.4">
       <c r="D25" s="10" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="18.600000000000001" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:16" ht="19.5" x14ac:dyDescent="0.4">
       <c r="C26" s="9" t="s">
         <v>24</v>
       </c>
@@ -12927,36 +12992,36 @@
       <c r="O26" s="33"/>
       <c r="P26" s="33"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.4">
       <c r="L27" s="33"/>
       <c r="M27" s="33"/>
       <c r="N27" s="33"/>
       <c r="O27" s="33"/>
       <c r="P27" s="33"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.4">
       <c r="L28" s="33"/>
       <c r="M28" s="33"/>
       <c r="N28" s="33"/>
       <c r="O28" s="33"/>
       <c r="P28" s="33"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B30" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B31" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A33" s="11" t="s">
         <v>29</v>
       </c>
@@ -12964,22 +13029,22 @@
         <v>38</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B34" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B35" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B36" s="12" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A38" s="11" t="s">
         <v>30</v>
       </c>
@@ -12987,17 +13052,17 @@
         <v>39</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B39" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B40" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A42" s="11" t="s">
         <v>37</v>
       </c>
@@ -13005,17 +13070,17 @@
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B43" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B44" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A46" s="13" t="s">
         <v>45</v>
       </c>
@@ -13023,22 +13088,22 @@
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B47" s="12" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B48" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B49" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A51" s="11" t="s">
         <v>50</v>
       </c>
@@ -13046,17 +13111,17 @@
         <v>53</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B52" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B53" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A55" s="11" t="s">
         <v>54</v>
       </c>
@@ -13064,22 +13129,22 @@
         <v>60</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B56" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B57" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B58" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A60" s="11" t="s">
         <v>58</v>
       </c>
@@ -13087,22 +13152,22 @@
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B61" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B62" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B63" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A65" s="11" t="s">
         <v>63</v>
       </c>
@@ -13110,32 +13175,32 @@
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B66" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B67" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C68" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C69" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C70" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A72" s="11" t="s">
         <v>70</v>
       </c>
@@ -13143,17 +13208,17 @@
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B73" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B74" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A76" s="11" t="s">
         <v>73</v>
       </c>
@@ -13161,17 +13226,17 @@
         <v>74</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B77" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B78" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A80" s="11" t="s">
         <v>78</v>
       </c>
@@ -13179,22 +13244,22 @@
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B81" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B82" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B83" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A85" s="11" t="s">
         <v>82</v>
       </c>
@@ -13202,17 +13267,17 @@
         <v>83</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B86" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B87" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A89" s="11" t="s">
         <v>86</v>
       </c>
@@ -13220,17 +13285,17 @@
         <v>87</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B90" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B91" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A93" s="11" t="s">
         <v>90</v>
       </c>
@@ -13238,32 +13303,32 @@
         <v>91</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B94" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B95" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B96" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B97" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B98" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A100" s="11" t="s">
         <v>97</v>
       </c>
@@ -13271,27 +13336,27 @@
         <v>98</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B101" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B102" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B103" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B104" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A106" s="11" t="s">
         <v>103</v>
       </c>
@@ -13299,22 +13364,22 @@
         <v>104</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B107" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B108" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B109" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C110" s="11" t="s">
         <v>108</v>
       </c>
@@ -13322,7 +13387,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C111" s="11" t="s">
         <v>109</v>
       </c>
@@ -13330,7 +13395,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C112" s="11" t="s">
         <v>110</v>
       </c>
@@ -13338,7 +13403,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C113" s="11" t="s">
         <v>111</v>
       </c>
@@ -13346,7 +13411,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C114" s="11" t="s">
         <v>112</v>
       </c>
@@ -13354,7 +13419,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C115" s="11" t="s">
         <v>113</v>
       </c>
@@ -13362,7 +13427,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C116" s="11" t="s">
         <v>114</v>
       </c>
@@ -13370,61 +13435,61 @@
         <v>198</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B117" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B118" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A121" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="137" spans="16:18" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="P137" s="29" t="s">
+    <row r="137" spans="16:18" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="P137" s="31" t="s">
         <v>270</v>
       </c>
-      <c r="Q137" s="29"/>
-      <c r="R137" s="29"/>
-    </row>
-    <row r="138" spans="16:18" x14ac:dyDescent="0.45">
-      <c r="P138" s="29"/>
-      <c r="Q138" s="29"/>
-      <c r="R138" s="29"/>
-    </row>
-    <row r="150" spans="1:10" ht="18.600000000000001" x14ac:dyDescent="0.45">
+      <c r="Q137" s="31"/>
+      <c r="R137" s="31"/>
+    </row>
+    <row r="138" spans="16:18" x14ac:dyDescent="0.4">
+      <c r="P138" s="31"/>
+      <c r="Q138" s="31"/>
+      <c r="R138" s="31"/>
+    </row>
+    <row r="150" spans="1:10" ht="19.5" x14ac:dyDescent="0.4">
       <c r="C150" s="23" t="s">
         <v>271</v>
       </c>
       <c r="G150" s="30" t="s">
         <v>272</v>
       </c>
-      <c r="H150" s="29"/>
-      <c r="I150" s="29"/>
-      <c r="J150" s="29"/>
-    </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="G151" s="29"/>
-      <c r="H151" s="29"/>
-      <c r="I151" s="29"/>
-      <c r="J151" s="29"/>
-    </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="H150" s="31"/>
+      <c r="I150" s="31"/>
+      <c r="J150" s="31"/>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="G151" s="31"/>
+      <c r="H151" s="31"/>
+      <c r="I151" s="31"/>
+      <c r="J151" s="31"/>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A153" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B154" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A156" s="11" t="s">
         <v>29</v>
       </c>
@@ -13432,27 +13497,27 @@
         <v>278</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B157" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B158" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B159" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B160" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A162" s="11" t="s">
         <v>283</v>
       </c>
@@ -13460,22 +13525,22 @@
         <v>284</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B163" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B164" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B165" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A167" s="11" t="s">
         <v>288</v>
       </c>
@@ -13483,17 +13548,17 @@
         <v>289</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B168" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B169" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A171" s="11" t="s">
         <v>292</v>
       </c>
@@ -13501,22 +13566,22 @@
         <v>293</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B172" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B173" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B174" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A176" s="11" t="s">
         <v>297</v>
       </c>
@@ -13524,22 +13589,22 @@
         <v>298</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B177" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B178" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B179" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A181" s="11" t="s">
         <v>301</v>
       </c>
@@ -13547,72 +13612,72 @@
         <v>302</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B182" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B183" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B184" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B185" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A189" t="s">
         <v>306</v>
       </c>
-      <c r="E189" s="31" t="s">
+      <c r="E189" s="29" t="s">
         <v>273</v>
       </c>
-      <c r="F189" s="31"/>
-      <c r="G189" s="31"/>
-      <c r="H189" s="31"/>
-    </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="E190" s="31"/>
-      <c r="F190" s="31"/>
-      <c r="G190" s="31"/>
-      <c r="H190" s="31"/>
-    </row>
-    <row r="224" spans="2:12" ht="19.8" x14ac:dyDescent="0.45">
+      <c r="F189" s="29"/>
+      <c r="G189" s="29"/>
+      <c r="H189" s="29"/>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="E190" s="29"/>
+      <c r="F190" s="29"/>
+      <c r="G190" s="29"/>
+      <c r="H190" s="29"/>
+    </row>
+    <row r="224" spans="2:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B224" s="23" t="s">
         <v>274</v>
       </c>
       <c r="F224" s="30" t="s">
         <v>275</v>
       </c>
-      <c r="G224" s="29"/>
-      <c r="H224" s="29"/>
+      <c r="G224" s="31"/>
+      <c r="H224" s="31"/>
       <c r="L224" s="24" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="F225" s="29"/>
-      <c r="G225" s="29"/>
-      <c r="H225" s="29"/>
-    </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="F225" s="31"/>
+      <c r="G225" s="31"/>
+      <c r="H225" s="31"/>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A227" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B228" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A230" s="11" t="s">
         <v>29</v>
       </c>
@@ -13620,22 +13685,22 @@
         <v>308</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B231" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B232" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B233" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A235" s="11" t="s">
         <v>283</v>
       </c>
@@ -13643,22 +13708,22 @@
         <v>284</v>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B236" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B237" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B238" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A240" s="11" t="s">
         <v>288</v>
       </c>
@@ -13666,32 +13731,32 @@
         <v>313</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B241" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B242" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B243" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B244" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B245" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A247" s="11" t="s">
         <v>318</v>
       </c>
@@ -13699,32 +13764,32 @@
         <v>319</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B248" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B249" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B250" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B251" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B252" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A254" s="11" t="s">
         <v>324</v>
       </c>
@@ -13732,37 +13797,37 @@
         <v>338</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B255" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B256" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B257" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B258" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B259" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B260" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A262" s="11" t="s">
         <v>301</v>
       </c>
@@ -13770,17 +13835,17 @@
         <v>339</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B263" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B264" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A266" s="11" t="s">
         <v>330</v>
       </c>
@@ -13788,47 +13853,47 @@
         <v>340</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B267" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B268" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B269" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B270" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B271" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B272" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B273" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B274" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A276" s="11" t="s">
         <v>337</v>
       </c>
@@ -13836,85 +13901,85 @@
         <v>341</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B277" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B278" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B279" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B280" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B281" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B282" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B283" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A285" t="s">
         <v>348</v>
       </c>
-      <c r="B285" s="34" t="s">
+      <c r="B285" s="25" t="s">
         <v>349</v>
       </c>
-      <c r="C285" s="34"/>
-      <c r="D285" s="34"/>
-      <c r="E285" s="34"/>
-      <c r="F285" s="34"/>
-      <c r="G285" s="34"/>
-    </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C285" s="25"/>
+      <c r="D285" s="25"/>
+      <c r="E285" s="25"/>
+      <c r="F285" s="25"/>
+      <c r="G285" s="25"/>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A319" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B320" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A322" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B323" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A357" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B358" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B359" t="s">
         <v>354</v>
       </c>
@@ -13940,19 +14005,20 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="12.59765625" customWidth="1"/>
-    <col min="2" max="6" width="9.59765625" customWidth="1"/>
+    <col min="1" max="1" width="12.625" customWidth="1"/>
+    <col min="2" max="6" width="9.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" s="18" t="s">
         <v>259</v>
       </c>
@@ -13960,7 +14026,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" s="18" t="s">
         <v>257</v>
       </c>
@@ -13968,7 +14034,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" s="18" t="s">
         <v>255</v>
       </c>
@@ -13988,7 +14054,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" s="14" t="s">
         <v>251</v>
       </c>
@@ -14008,7 +14074,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" s="14" t="s">
         <v>250</v>
       </c>
@@ -14028,7 +14094,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" s="14" t="s">
         <v>249</v>
       </c>
@@ -14048,7 +14114,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8" s="14" t="s">
         <v>248</v>
       </c>
@@ -14068,7 +14134,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A9" s="14" t="s">
         <v>247</v>
       </c>

--- a/小野先生からの提供分/令和3年度 第3Q_Excel入門 解答.xlsx
+++ b/小野先生からの提供分/令和3年度 第3Q_Excel入門 解答.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\快活CLUB\Desktop\ExcelSpreadsheet2022\小野先生からの提供分\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\plady\Desktop\ExcelSpreadsheet2022\小野先生からの提供分\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59341778-8A54-4E80-943F-B5B7C24C1EDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="問題１" sheetId="1" r:id="rId1"/>
@@ -21,13 +22,24 @@
     <sheet name="問題と完成見本" sheetId="3" r:id="rId7"/>
     <sheet name="Sheet1" sheetId="6" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="10" r:id="rId9"/>
+    <pivotCache cacheId="0" r:id="rId9"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -3103,7 +3115,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0%"/>
   </numFmts>
@@ -3304,7 +3316,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3326,10 +3338,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -3356,9 +3365,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1">
       <alignment vertical="center"/>
     </xf>
@@ -3372,9 +3378,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="38" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -3474,7 +3477,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3677,9 +3679,7 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -3751,7 +3751,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
@@ -3879,7 +3878,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4438,7 +4436,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4759,6 +4756,230 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="16"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="17"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="18"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="19"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
@@ -6993,7 +7214,7 @@
 </file>
 
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr codeName="Graph6"/>
   <sheetViews>
     <sheetView zoomScale="117" workbookViewId="0" zoomToFit="1"/>
@@ -7020,7 +7241,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="グラフ 1"/>
+        <xdr:cNvPr id="2" name="グラフ 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -7045,7 +7272,13 @@
     <xdr:ext cx="9297051" cy="6073205"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="グラフ 1"/>
+        <xdr:cNvPr id="2" name="グラフ 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks noGrp="1"/>
         </xdr:cNvGraphicFramePr>
@@ -7082,7 +7315,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="40" name="グループ化 39"/>
+        <xdr:cNvPr id="40" name="グループ化 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000028000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -7095,7 +7334,13 @@
       </xdr:grpSpPr>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="4" name="図 3"/>
+          <xdr:cNvPr id="4" name="図 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000004000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1"/>
           </xdr:cNvPicPr>
@@ -7123,7 +7368,13 @@
       </xdr:pic>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="5" name="右中かっこ 4"/>
+          <xdr:cNvPr id="5" name="右中かっこ 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000005000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -7168,7 +7419,13 @@
       </xdr:sp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="7" name="カギ線コネクタ 6"/>
+          <xdr:cNvPr id="7" name="カギ線コネクタ 6">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000007000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -7205,7 +7462,13 @@
       </xdr:cxnSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="13" name="右中かっこ 12"/>
+          <xdr:cNvPr id="13" name="右中かっこ 12">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00000D000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -7250,7 +7513,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="14" name="正方形/長方形 13"/>
+          <xdr:cNvPr id="14" name="正方形/長方形 13">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00000E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -7295,7 +7564,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="16" name="L 字 15"/>
+          <xdr:cNvPr id="16" name="L 字 15">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000010000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -7343,7 +7618,13 @@
       </xdr:sp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="18" name="直線矢印コネクタ 17"/>
+          <xdr:cNvPr id="18" name="直線矢印コネクタ 17">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000012000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -7378,7 +7659,13 @@
       </xdr:cxnSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="20" name="右中かっこ 19"/>
+          <xdr:cNvPr id="20" name="右中かっこ 19">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000014000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -7423,7 +7710,13 @@
       </xdr:sp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="21" name="直線矢印コネクタ 20"/>
+          <xdr:cNvPr id="21" name="直線矢印コネクタ 20">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000015000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -7459,7 +7752,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="24" name="直線矢印コネクタ 23"/>
+          <xdr:cNvPr id="24" name="直線矢印コネクタ 23">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000018000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:endCxn id="14" idx="2"/>
           </xdr:cNvCxnSpPr>
@@ -7496,7 +7795,13 @@
       </xdr:cxnSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="28" name="正方形/長方形 27"/>
+          <xdr:cNvPr id="28" name="正方形/長方形 27">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00001C000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -7541,7 +7846,13 @@
       </xdr:sp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="30" name="カギ線コネクタ 29"/>
+          <xdr:cNvPr id="30" name="カギ線コネクタ 29">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00001E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:stCxn id="28" idx="1"/>
           </xdr:cNvCxnSpPr>
@@ -7579,7 +7890,13 @@
       </xdr:cxnSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="31" name="L 字 30"/>
+          <xdr:cNvPr id="31" name="L 字 30">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00001F000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -7627,7 +7944,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="32" name="L 字 31"/>
+          <xdr:cNvPr id="32" name="L 字 31">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000020000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -7675,7 +7998,13 @@
       </xdr:sp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="33" name="直線矢印コネクタ 32"/>
+          <xdr:cNvPr id="33" name="直線矢印コネクタ 32">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000021000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -7711,7 +8040,13 @@
       </xdr:cxnSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="35" name="右中かっこ 34"/>
+          <xdr:cNvPr id="35" name="右中かっこ 34">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000023000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -7756,7 +8091,13 @@
       </xdr:sp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="36" name="直線矢印コネクタ 35"/>
+          <xdr:cNvPr id="36" name="直線矢印コネクタ 35">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000024000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -7808,7 +8149,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="27" name="グループ化 26"/>
+        <xdr:cNvPr id="27" name="グループ化 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00001B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -7821,7 +8168,13 @@
       </xdr:grpSpPr>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="2" name="図 1"/>
+          <xdr:cNvPr id="2" name="図 1">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1"/>
           </xdr:cNvPicPr>
@@ -7844,7 +8197,13 @@
       </xdr:pic>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="6" name="カギ線コネクタ 5"/>
+          <xdr:cNvPr id="6" name="カギ線コネクタ 5">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000006000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -7881,7 +8240,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="26" name="カギ線コネクタ 25"/>
+          <xdr:cNvPr id="26" name="カギ線コネクタ 25">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00001A000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -7918,7 +8283,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="17" name="直線コネクタ 16"/>
+          <xdr:cNvPr id="17" name="直線コネクタ 16">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000011000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -7969,7 +8340,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="47" name="グループ化 46"/>
+        <xdr:cNvPr id="47" name="グループ化 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00002F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -7982,7 +8359,13 @@
       </xdr:grpSpPr>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="22" name="図 21"/>
+          <xdr:cNvPr id="22" name="図 21">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000016000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1"/>
           </xdr:cNvPicPr>
@@ -8005,7 +8388,13 @@
       </xdr:pic>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="34" name="カギ線コネクタ 33"/>
+          <xdr:cNvPr id="34" name="カギ線コネクタ 33">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000022000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -8042,7 +8431,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="39" name="カギ線コネクタ 38"/>
+          <xdr:cNvPr id="39" name="カギ線コネクタ 38">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000027000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -8079,7 +8474,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="43" name="直線矢印コネクタ 42"/>
+          <xdr:cNvPr id="43" name="直線矢印コネクタ 42">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00002B000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -8115,7 +8516,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="44" name="直線矢印コネクタ 43"/>
+          <xdr:cNvPr id="44" name="直線矢印コネクタ 43">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00002C000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -8167,7 +8574,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2"/>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -8205,7 +8618,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="図 7"/>
+        <xdr:cNvPr id="8" name="図 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -8243,7 +8662,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="図 8"/>
+        <xdr:cNvPr id="9" name="図 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -8286,7 +8711,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="グラフ 1"/>
+        <xdr:cNvPr id="2" name="グラフ 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -8307,7 +8738,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="富士太郎" refreshedDate="42474.397203819448" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="102">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="富士太郎" refreshedDate="42474.397203819448" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="102" xr:uid="{00000000-000A-0000-FFFF-FFFF0A000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A5:G107" sheet="アンケート集計" r:id="rId2"/>
   </cacheSource>
@@ -9287,7 +9718,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ピボットテーブル1" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="値" missingCaption="0" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2" rowHeaderCaption="飲みやすさ" colHeaderCaption="職業">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0700-000000000000}" name="ピボットテーブル1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="値" missingCaption="0" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2" rowHeaderCaption="飲みやすさ" colHeaderCaption="職業">
   <location ref="A3:F9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="7">
     <pivotField dataField="1" showAll="0"/>
@@ -9380,10 +9811,63 @@
   <dataFields count="1">
     <dataField name="回答者数" fld="0" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
+  <chartFormats count="4">
+    <chartFormat chart="1" format="16" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="17" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="18" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="19" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
   <pivotTableStyleInfo name="PivotStyleMedium2" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
     </ext>
   </extLst>
 </pivotTableDefinition>
@@ -9651,7 +10135,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B2:J11"/>
   <sheetViews>
@@ -9829,11 +10313,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
@@ -9845,143 +10329,143 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="24" x14ac:dyDescent="0.4">
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="23" t="s">
         <v>260</v>
       </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
     </row>
     <row r="2" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="10" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B3" s="19"/>
-      <c r="C3" s="20" t="s">
+      <c r="B3" s="17"/>
+      <c r="C3" s="18" t="s">
         <v>261</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="18" t="s">
         <v>262</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="18" t="s">
         <v>263</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="18" t="s">
         <v>264</v>
       </c>
-      <c r="G3" s="20" t="s">
+      <c r="G3" s="18" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="19" t="s">
         <v>265</v>
       </c>
-      <c r="C4" s="22">
+      <c r="C4" s="20">
         <v>6000</v>
       </c>
-      <c r="D4" s="22">
+      <c r="D4" s="20">
         <v>5800</v>
       </c>
-      <c r="E4" s="22">
+      <c r="E4" s="20">
         <v>2400</v>
       </c>
-      <c r="F4" s="22">
+      <c r="F4" s="20">
         <v>4200</v>
       </c>
-      <c r="G4" s="22">
+      <c r="G4" s="20">
         <f>SUM(C4:F4)</f>
         <v>18400</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="19" t="s">
         <v>266</v>
       </c>
-      <c r="C5" s="22">
+      <c r="C5" s="20">
         <v>2000</v>
       </c>
-      <c r="D5" s="22">
+      <c r="D5" s="20">
         <v>2800</v>
       </c>
-      <c r="E5" s="22">
+      <c r="E5" s="20">
         <v>4600</v>
       </c>
-      <c r="F5" s="22">
+      <c r="F5" s="20">
         <v>2300</v>
       </c>
-      <c r="G5" s="22">
+      <c r="G5" s="20">
         <f>SUM(C5:F5)</f>
         <v>11700</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="19" t="s">
         <v>267</v>
       </c>
-      <c r="C6" s="22">
+      <c r="C6" s="20">
         <v>4600</v>
       </c>
-      <c r="D6" s="22">
+      <c r="D6" s="20">
         <v>3400</v>
       </c>
-      <c r="E6" s="22">
+      <c r="E6" s="20">
         <v>2100</v>
       </c>
-      <c r="F6" s="22">
+      <c r="F6" s="20">
         <v>1800</v>
       </c>
-      <c r="G6" s="22">
+      <c r="G6" s="20">
         <f>SUM(C6:F6)</f>
         <v>11900</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="19" t="s">
         <v>268</v>
       </c>
-      <c r="C7" s="22">
+      <c r="C7" s="20">
         <v>4400</v>
       </c>
-      <c r="D7" s="22">
+      <c r="D7" s="20">
         <v>2600</v>
       </c>
-      <c r="E7" s="22">
+      <c r="E7" s="20">
         <v>1800</v>
       </c>
-      <c r="F7" s="22">
+      <c r="F7" s="20">
         <v>2300</v>
       </c>
-      <c r="G7" s="22">
+      <c r="G7" s="20">
         <f>SUM(C7:F7)</f>
         <v>11100</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="22">
+      <c r="C8" s="20">
         <f>SUM(C4:C7)</f>
         <v>17000</v>
       </c>
-      <c r="D8" s="22">
+      <c r="D8" s="20">
         <f>SUM(D4:D7)</f>
         <v>14600</v>
       </c>
-      <c r="E8" s="22">
+      <c r="E8" s="20">
         <f>SUM(E4:E7)</f>
         <v>10900</v>
       </c>
-      <c r="F8" s="22">
+      <c r="F8" s="20">
         <f>SUM(F4:F7)</f>
         <v>10600</v>
       </c>
-      <c r="G8" s="22">
+      <c r="G8" s="20">
         <f>SUM(C8:F8)</f>
         <v>53100</v>
       </c>
@@ -9996,7 +10480,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A2:G107"/>
   <sheetViews>
@@ -10012,41 +10496,41 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7" ht="23.25" x14ac:dyDescent="0.4">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="10" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="G5" s="14" t="s">
         <v>126</v>
       </c>
     </row>
@@ -10054,7 +10538,7 @@
       <c r="A6" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="15" t="s">
         <v>128</v>
       </c>
       <c r="C6" s="1">
@@ -10077,7 +10561,7 @@
       <c r="A7" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="15" t="s">
         <v>134</v>
       </c>
       <c r="C7" s="1">
@@ -10100,7 +10584,7 @@
       <c r="A8" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="15" t="s">
         <v>128</v>
       </c>
       <c r="C8" s="1">
@@ -10123,7 +10607,7 @@
       <c r="A9" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="15" t="s">
         <v>128</v>
       </c>
       <c r="C9" s="1">
@@ -10146,7 +10630,7 @@
       <c r="A10" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="15" t="s">
         <v>134</v>
       </c>
       <c r="C10" s="1">
@@ -10169,7 +10653,7 @@
       <c r="A11" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="15" t="s">
         <v>128</v>
       </c>
       <c r="C11" s="1">
@@ -10192,7 +10676,7 @@
       <c r="A12" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="15" t="s">
         <v>128</v>
       </c>
       <c r="C12" s="1">
@@ -10215,7 +10699,7 @@
       <c r="A13" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="15" t="s">
         <v>134</v>
       </c>
       <c r="C13" s="1">
@@ -10238,7 +10722,7 @@
       <c r="A14" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="15" t="s">
         <v>128</v>
       </c>
       <c r="C14" s="1">
@@ -10261,7 +10745,7 @@
       <c r="A15" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="15" t="s">
         <v>128</v>
       </c>
       <c r="C15" s="1">
@@ -10284,7 +10768,7 @@
       <c r="A16" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="15" t="s">
         <v>134</v>
       </c>
       <c r="C16" s="1">
@@ -10307,7 +10791,7 @@
       <c r="A17" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="15" t="s">
         <v>128</v>
       </c>
       <c r="C17" s="1">
@@ -10330,7 +10814,7 @@
       <c r="A18" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="15" t="s">
         <v>128</v>
       </c>
       <c r="C18" s="1">
@@ -10353,7 +10837,7 @@
       <c r="A19" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="15" t="s">
         <v>134</v>
       </c>
       <c r="C19" s="1">
@@ -10376,7 +10860,7 @@
       <c r="A20" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="15" t="s">
         <v>128</v>
       </c>
       <c r="C20" s="1">
@@ -10399,7 +10883,7 @@
       <c r="A21" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B21" s="16" t="s">
+      <c r="B21" s="15" t="s">
         <v>128</v>
       </c>
       <c r="C21" s="1">
@@ -10422,7 +10906,7 @@
       <c r="A22" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="15" t="s">
         <v>134</v>
       </c>
       <c r="C22" s="1">
@@ -10445,7 +10929,7 @@
       <c r="A23" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B23" s="16" t="s">
+      <c r="B23" s="15" t="s">
         <v>128</v>
       </c>
       <c r="C23" s="1">
@@ -10468,7 +10952,7 @@
       <c r="A24" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B24" s="16" t="s">
+      <c r="B24" s="15" t="s">
         <v>128</v>
       </c>
       <c r="C24" s="1">
@@ -10491,7 +10975,7 @@
       <c r="A25" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="B25" s="16" t="s">
+      <c r="B25" s="15" t="s">
         <v>134</v>
       </c>
       <c r="C25" s="1">
@@ -10514,7 +10998,7 @@
       <c r="A26" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B26" s="16" t="s">
+      <c r="B26" s="15" t="s">
         <v>128</v>
       </c>
       <c r="C26" s="1">
@@ -10537,7 +11021,7 @@
       <c r="A27" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B27" s="16" t="s">
+      <c r="B27" s="15" t="s">
         <v>128</v>
       </c>
       <c r="C27" s="1">
@@ -10560,7 +11044,7 @@
       <c r="A28" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="B28" s="16" t="s">
+      <c r="B28" s="15" t="s">
         <v>134</v>
       </c>
       <c r="C28" s="1">
@@ -10583,7 +11067,7 @@
       <c r="A29" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B29" s="16" t="s">
+      <c r="B29" s="15" t="s">
         <v>128</v>
       </c>
       <c r="C29" s="1">
@@ -10606,7 +11090,7 @@
       <c r="A30" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="B30" s="16" t="s">
+      <c r="B30" s="15" t="s">
         <v>128</v>
       </c>
       <c r="C30" s="1">
@@ -10629,7 +11113,7 @@
       <c r="A31" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="B31" s="16" t="s">
+      <c r="B31" s="15" t="s">
         <v>134</v>
       </c>
       <c r="C31" s="1">
@@ -10652,7 +11136,7 @@
       <c r="A32" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="B32" s="16" t="s">
+      <c r="B32" s="15" t="s">
         <v>128</v>
       </c>
       <c r="C32" s="1">
@@ -10675,7 +11159,7 @@
       <c r="A33" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="B33" s="16" t="s">
+      <c r="B33" s="15" t="s">
         <v>134</v>
       </c>
       <c r="C33" s="1">
@@ -10698,7 +11182,7 @@
       <c r="A34" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B34" s="16" t="s">
+      <c r="B34" s="15" t="s">
         <v>128</v>
       </c>
       <c r="C34" s="1">
@@ -10721,7 +11205,7 @@
       <c r="A35" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B35" s="16" t="s">
+      <c r="B35" s="15" t="s">
         <v>128</v>
       </c>
       <c r="C35" s="1">
@@ -10744,7 +11228,7 @@
       <c r="A36" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B36" s="16" t="s">
+      <c r="B36" s="15" t="s">
         <v>134</v>
       </c>
       <c r="C36" s="1">
@@ -10767,7 +11251,7 @@
       <c r="A37" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="B37" s="16" t="s">
+      <c r="B37" s="15" t="s">
         <v>128</v>
       </c>
       <c r="C37" s="1">
@@ -10790,7 +11274,7 @@
       <c r="A38" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B38" s="16" t="s">
+      <c r="B38" s="15" t="s">
         <v>128</v>
       </c>
       <c r="C38" s="1">
@@ -10813,7 +11297,7 @@
       <c r="A39" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B39" s="16" t="s">
+      <c r="B39" s="15" t="s">
         <v>134</v>
       </c>
       <c r="C39" s="1">
@@ -10836,7 +11320,7 @@
       <c r="A40" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="B40" s="16" t="s">
+      <c r="B40" s="15" t="s">
         <v>128</v>
       </c>
       <c r="C40" s="1">
@@ -10859,7 +11343,7 @@
       <c r="A41" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="B41" s="16" t="s">
+      <c r="B41" s="15" t="s">
         <v>128</v>
       </c>
       <c r="C41" s="1">
@@ -10882,7 +11366,7 @@
       <c r="A42" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="B42" s="16" t="s">
+      <c r="B42" s="15" t="s">
         <v>128</v>
       </c>
       <c r="C42" s="1">
@@ -10905,7 +11389,7 @@
       <c r="A43" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="B43" s="16" t="s">
+      <c r="B43" s="15" t="s">
         <v>128</v>
       </c>
       <c r="C43" s="1">
@@ -10928,7 +11412,7 @@
       <c r="A44" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="B44" s="16" t="s">
+      <c r="B44" s="15" t="s">
         <v>128</v>
       </c>
       <c r="C44" s="1">
@@ -10951,7 +11435,7 @@
       <c r="A45" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="B45" s="16" t="s">
+      <c r="B45" s="15" t="s">
         <v>134</v>
       </c>
       <c r="C45" s="1">
@@ -10974,7 +11458,7 @@
       <c r="A46" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="B46" s="16" t="s">
+      <c r="B46" s="15" t="s">
         <v>128</v>
       </c>
       <c r="C46" s="1">
@@ -10997,7 +11481,7 @@
       <c r="A47" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="B47" s="16" t="s">
+      <c r="B47" s="15" t="s">
         <v>128</v>
       </c>
       <c r="C47" s="1">
@@ -11020,7 +11504,7 @@
       <c r="A48" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="B48" s="16" t="s">
+      <c r="B48" s="15" t="s">
         <v>128</v>
       </c>
       <c r="C48" s="1">
@@ -11043,7 +11527,7 @@
       <c r="A49" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="B49" s="16" t="s">
+      <c r="B49" s="15" t="s">
         <v>128</v>
       </c>
       <c r="C49" s="1">
@@ -11066,7 +11550,7 @@
       <c r="A50" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="B50" s="16" t="s">
+      <c r="B50" s="15" t="s">
         <v>134</v>
       </c>
       <c r="C50" s="1">
@@ -11089,7 +11573,7 @@
       <c r="A51" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="B51" s="16" t="s">
+      <c r="B51" s="15" t="s">
         <v>128</v>
       </c>
       <c r="C51" s="1">
@@ -11112,7 +11596,7 @@
       <c r="A52" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="B52" s="16" t="s">
+      <c r="B52" s="15" t="s">
         <v>128</v>
       </c>
       <c r="C52" s="1">
@@ -11135,7 +11619,7 @@
       <c r="A53" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="B53" s="16" t="s">
+      <c r="B53" s="15" t="s">
         <v>128</v>
       </c>
       <c r="C53" s="1">
@@ -11158,7 +11642,7 @@
       <c r="A54" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="B54" s="16" t="s">
+      <c r="B54" s="15" t="s">
         <v>128</v>
       </c>
       <c r="C54" s="1">
@@ -11181,7 +11665,7 @@
       <c r="A55" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="B55" s="16" t="s">
+      <c r="B55" s="15" t="s">
         <v>128</v>
       </c>
       <c r="C55" s="1">
@@ -11204,7 +11688,7 @@
       <c r="A56" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="B56" s="16" t="s">
+      <c r="B56" s="15" t="s">
         <v>128</v>
       </c>
       <c r="C56" s="1">
@@ -11227,7 +11711,7 @@
       <c r="A57" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="B57" s="16" t="s">
+      <c r="B57" s="15" t="s">
         <v>128</v>
       </c>
       <c r="C57" s="1">
@@ -11250,7 +11734,7 @@
       <c r="A58" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="B58" s="16" t="s">
+      <c r="B58" s="15" t="s">
         <v>134</v>
       </c>
       <c r="C58" s="1">
@@ -11273,7 +11757,7 @@
       <c r="A59" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="B59" s="16" t="s">
+      <c r="B59" s="15" t="s">
         <v>128</v>
       </c>
       <c r="C59" s="1">
@@ -11296,7 +11780,7 @@
       <c r="A60" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="B60" s="16" t="s">
+      <c r="B60" s="15" t="s">
         <v>128</v>
       </c>
       <c r="C60" s="1">
@@ -11319,7 +11803,7 @@
       <c r="A61" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="B61" s="16" t="s">
+      <c r="B61" s="15" t="s">
         <v>134</v>
       </c>
       <c r="C61" s="1">
@@ -11342,7 +11826,7 @@
       <c r="A62" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="B62" s="16" t="s">
+      <c r="B62" s="15" t="s">
         <v>128</v>
       </c>
       <c r="C62" s="1">
@@ -11365,7 +11849,7 @@
       <c r="A63" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="B63" s="16" t="s">
+      <c r="B63" s="15" t="s">
         <v>128</v>
       </c>
       <c r="C63" s="1">
@@ -11388,7 +11872,7 @@
       <c r="A64" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="B64" s="16" t="s">
+      <c r="B64" s="15" t="s">
         <v>134</v>
       </c>
       <c r="C64" s="1">
@@ -11411,7 +11895,7 @@
       <c r="A65" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="B65" s="16" t="s">
+      <c r="B65" s="15" t="s">
         <v>128</v>
       </c>
       <c r="C65" s="1">
@@ -11434,7 +11918,7 @@
       <c r="A66" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="B66" s="16" t="s">
+      <c r="B66" s="15" t="s">
         <v>128</v>
       </c>
       <c r="C66" s="1">
@@ -11457,7 +11941,7 @@
       <c r="A67" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="B67" s="16" t="s">
+      <c r="B67" s="15" t="s">
         <v>128</v>
       </c>
       <c r="C67" s="1">
@@ -11480,7 +11964,7 @@
       <c r="A68" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="B68" s="16" t="s">
+      <c r="B68" s="15" t="s">
         <v>128</v>
       </c>
       <c r="C68" s="1">
@@ -11503,7 +11987,7 @@
       <c r="A69" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="B69" s="16" t="s">
+      <c r="B69" s="15" t="s">
         <v>134</v>
       </c>
       <c r="C69" s="1">
@@ -11526,7 +12010,7 @@
       <c r="A70" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="B70" s="16" t="s">
+      <c r="B70" s="15" t="s">
         <v>128</v>
       </c>
       <c r="C70" s="1">
@@ -11549,7 +12033,7 @@
       <c r="A71" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B71" s="16" t="s">
+      <c r="B71" s="15" t="s">
         <v>128</v>
       </c>
       <c r="C71" s="1">
@@ -11572,7 +12056,7 @@
       <c r="A72" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="B72" s="16" t="s">
+      <c r="B72" s="15" t="s">
         <v>134</v>
       </c>
       <c r="C72" s="1">
@@ -11595,7 +12079,7 @@
       <c r="A73" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="B73" s="16" t="s">
+      <c r="B73" s="15" t="s">
         <v>128</v>
       </c>
       <c r="C73" s="1">
@@ -11618,7 +12102,7 @@
       <c r="A74" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="B74" s="16" t="s">
+      <c r="B74" s="15" t="s">
         <v>128</v>
       </c>
       <c r="C74" s="1">
@@ -11641,7 +12125,7 @@
       <c r="A75" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="B75" s="16" t="s">
+      <c r="B75" s="15" t="s">
         <v>134</v>
       </c>
       <c r="C75" s="1">
@@ -11664,7 +12148,7 @@
       <c r="A76" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="B76" s="16" t="s">
+      <c r="B76" s="15" t="s">
         <v>128</v>
       </c>
       <c r="C76" s="1">
@@ -11687,7 +12171,7 @@
       <c r="A77" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="B77" s="16" t="s">
+      <c r="B77" s="15" t="s">
         <v>128</v>
       </c>
       <c r="C77" s="1">
@@ -11710,7 +12194,7 @@
       <c r="A78" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="B78" s="16" t="s">
+      <c r="B78" s="15" t="s">
         <v>134</v>
       </c>
       <c r="C78" s="1">
@@ -11733,7 +12217,7 @@
       <c r="A79" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="B79" s="16" t="s">
+      <c r="B79" s="15" t="s">
         <v>128</v>
       </c>
       <c r="C79" s="1">
@@ -11756,7 +12240,7 @@
       <c r="A80" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="B80" s="16" t="s">
+      <c r="B80" s="15" t="s">
         <v>128</v>
       </c>
       <c r="C80" s="1">
@@ -11779,7 +12263,7 @@
       <c r="A81" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="B81" s="16" t="s">
+      <c r="B81" s="15" t="s">
         <v>128</v>
       </c>
       <c r="C81" s="1">
@@ -11802,7 +12286,7 @@
       <c r="A82" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="B82" s="16" t="s">
+      <c r="B82" s="15" t="s">
         <v>128</v>
       </c>
       <c r="C82" s="1">
@@ -11825,7 +12309,7 @@
       <c r="A83" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="B83" s="16" t="s">
+      <c r="B83" s="15" t="s">
         <v>134</v>
       </c>
       <c r="C83" s="1">
@@ -11848,7 +12332,7 @@
       <c r="A84" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="B84" s="16" t="s">
+      <c r="B84" s="15" t="s">
         <v>128</v>
       </c>
       <c r="C84" s="1">
@@ -11871,7 +12355,7 @@
       <c r="A85" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="B85" s="16" t="s">
+      <c r="B85" s="15" t="s">
         <v>128</v>
       </c>
       <c r="C85" s="1">
@@ -11894,7 +12378,7 @@
       <c r="A86" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="B86" s="16" t="s">
+      <c r="B86" s="15" t="s">
         <v>134</v>
       </c>
       <c r="C86" s="1">
@@ -11917,7 +12401,7 @@
       <c r="A87" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="B87" s="16" t="s">
+      <c r="B87" s="15" t="s">
         <v>128</v>
       </c>
       <c r="C87" s="1">
@@ -11940,7 +12424,7 @@
       <c r="A88" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="B88" s="16" t="s">
+      <c r="B88" s="15" t="s">
         <v>128</v>
       </c>
       <c r="C88" s="1">
@@ -11963,7 +12447,7 @@
       <c r="A89" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="B89" s="16" t="s">
+      <c r="B89" s="15" t="s">
         <v>134</v>
       </c>
       <c r="C89" s="1">
@@ -11986,7 +12470,7 @@
       <c r="A90" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="B90" s="16" t="s">
+      <c r="B90" s="15" t="s">
         <v>128</v>
       </c>
       <c r="C90" s="1">
@@ -12009,7 +12493,7 @@
       <c r="A91" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="B91" s="16" t="s">
+      <c r="B91" s="15" t="s">
         <v>128</v>
       </c>
       <c r="C91" s="1">
@@ -12032,7 +12516,7 @@
       <c r="A92" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="B92" s="16" t="s">
+      <c r="B92" s="15" t="s">
         <v>128</v>
       </c>
       <c r="C92" s="1">
@@ -12055,7 +12539,7 @@
       <c r="A93" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="B93" s="16" t="s">
+      <c r="B93" s="15" t="s">
         <v>128</v>
       </c>
       <c r="C93" s="1">
@@ -12078,7 +12562,7 @@
       <c r="A94" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="B94" s="16" t="s">
+      <c r="B94" s="15" t="s">
         <v>134</v>
       </c>
       <c r="C94" s="1">
@@ -12101,7 +12585,7 @@
       <c r="A95" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="B95" s="16" t="s">
+      <c r="B95" s="15" t="s">
         <v>128</v>
       </c>
       <c r="C95" s="1">
@@ -12124,7 +12608,7 @@
       <c r="A96" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B96" s="16" t="s">
+      <c r="B96" s="15" t="s">
         <v>128</v>
       </c>
       <c r="C96" s="1">
@@ -12147,7 +12631,7 @@
       <c r="A97" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="B97" s="16" t="s">
+      <c r="B97" s="15" t="s">
         <v>128</v>
       </c>
       <c r="C97" s="1">
@@ -12170,7 +12654,7 @@
       <c r="A98" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="B98" s="16" t="s">
+      <c r="B98" s="15" t="s">
         <v>128</v>
       </c>
       <c r="C98" s="1">
@@ -12193,7 +12677,7 @@
       <c r="A99" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="B99" s="16" t="s">
+      <c r="B99" s="15" t="s">
         <v>134</v>
       </c>
       <c r="C99" s="1">
@@ -12216,7 +12700,7 @@
       <c r="A100" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="B100" s="16" t="s">
+      <c r="B100" s="15" t="s">
         <v>128</v>
       </c>
       <c r="C100" s="1">
@@ -12239,7 +12723,7 @@
       <c r="A101" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="B101" s="16" t="s">
+      <c r="B101" s="15" t="s">
         <v>134</v>
       </c>
       <c r="C101" s="1">
@@ -12262,7 +12746,7 @@
       <c r="A102" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="B102" s="16" t="s">
+      <c r="B102" s="15" t="s">
         <v>128</v>
       </c>
       <c r="C102" s="1">
@@ -12285,7 +12769,7 @@
       <c r="A103" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="B103" s="16" t="s">
+      <c r="B103" s="15" t="s">
         <v>128</v>
       </c>
       <c r="C103" s="1">
@@ -12308,7 +12792,7 @@
       <c r="A104" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="B104" s="16" t="s">
+      <c r="B104" s="15" t="s">
         <v>134</v>
       </c>
       <c r="C104" s="1">
@@ -12331,7 +12815,7 @@
       <c r="A105" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="B105" s="16" t="s">
+      <c r="B105" s="15" t="s">
         <v>128</v>
       </c>
       <c r="C105" s="1">
@@ -12354,7 +12838,7 @@
       <c r="A106" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="B106" s="16" t="s">
+      <c r="B106" s="15" t="s">
         <v>128</v>
       </c>
       <c r="C106" s="1">
@@ -12377,7 +12861,7 @@
       <c r="A107" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="B107" s="16" t="s">
+      <c r="B107" s="15" t="s">
         <v>134</v>
       </c>
       <c r="C107" s="1">
@@ -12406,7 +12890,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="B2:J12"/>
   <sheetViews>
@@ -12423,17 +12907,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.4">
       <c r="J3" t="s">
@@ -12735,7 +13219,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="B1:G8"/>
   <sheetViews>
@@ -12751,143 +13235,143 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="24" x14ac:dyDescent="0.4">
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="23" t="s">
         <v>260</v>
       </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
     </row>
     <row r="2" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="10" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B3" s="19"/>
-      <c r="C3" s="20" t="s">
+      <c r="B3" s="17"/>
+      <c r="C3" s="18" t="s">
         <v>261</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="18" t="s">
         <v>262</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="18" t="s">
         <v>263</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="18" t="s">
         <v>264</v>
       </c>
-      <c r="G3" s="20" t="s">
+      <c r="G3" s="18" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="19" t="s">
         <v>265</v>
       </c>
-      <c r="C4" s="22">
+      <c r="C4" s="20">
         <v>6000</v>
       </c>
-      <c r="D4" s="22">
+      <c r="D4" s="20">
         <v>5800</v>
       </c>
-      <c r="E4" s="22">
+      <c r="E4" s="20">
         <v>2400</v>
       </c>
-      <c r="F4" s="22">
+      <c r="F4" s="20">
         <v>4200</v>
       </c>
-      <c r="G4" s="22">
+      <c r="G4" s="20">
         <f>SUM(C4:F4)</f>
         <v>18400</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="19" t="s">
         <v>266</v>
       </c>
-      <c r="C5" s="22">
+      <c r="C5" s="20">
         <v>2000</v>
       </c>
-      <c r="D5" s="22">
+      <c r="D5" s="20">
         <v>2800</v>
       </c>
-      <c r="E5" s="22">
+      <c r="E5" s="20">
         <v>4600</v>
       </c>
-      <c r="F5" s="22">
+      <c r="F5" s="20">
         <v>2300</v>
       </c>
-      <c r="G5" s="22">
+      <c r="G5" s="20">
         <f>SUM(C5:F5)</f>
         <v>11700</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="19" t="s">
         <v>267</v>
       </c>
-      <c r="C6" s="22">
+      <c r="C6" s="20">
         <v>4600</v>
       </c>
-      <c r="D6" s="22">
+      <c r="D6" s="20">
         <v>3400</v>
       </c>
-      <c r="E6" s="22">
+      <c r="E6" s="20">
         <v>2100</v>
       </c>
-      <c r="F6" s="22">
+      <c r="F6" s="20">
         <v>1800</v>
       </c>
-      <c r="G6" s="22">
+      <c r="G6" s="20">
         <f>SUM(C6:F6)</f>
         <v>11900</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="19" t="s">
         <v>268</v>
       </c>
-      <c r="C7" s="22">
+      <c r="C7" s="20">
         <v>4400</v>
       </c>
-      <c r="D7" s="22">
+      <c r="D7" s="20">
         <v>2600</v>
       </c>
-      <c r="E7" s="22">
+      <c r="E7" s="20">
         <v>1800</v>
       </c>
-      <c r="F7" s="22">
+      <c r="F7" s="20">
         <v>2300</v>
       </c>
-      <c r="G7" s="22">
+      <c r="G7" s="20">
         <f>SUM(C7:F7)</f>
         <v>11100</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="22">
+      <c r="C8" s="20">
         <f>SUM(C4:C7)</f>
         <v>17000</v>
       </c>
-      <c r="D8" s="22">
+      <c r="D8" s="20">
         <f>SUM(D4:D7)</f>
         <v>14600</v>
       </c>
-      <c r="E8" s="22">
+      <c r="E8" s="20">
         <f>SUM(E4:E7)</f>
         <v>10900</v>
       </c>
-      <c r="F8" s="22">
+      <c r="F8" s="20">
         <f>SUM(F4:F7)</f>
         <v>10600</v>
       </c>
-      <c r="G8" s="22">
+      <c r="G8" s="20">
         <f>SUM(C8:F8)</f>
         <v>53100</v>
       </c>
@@ -12903,108 +13387,106 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:R359"/>
   <sheetViews>
-    <sheetView topLeftCell="A343" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B359" sqref="B359"/>
+    <sheetView tabSelected="1" topLeftCell="A289" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C359" sqref="C359"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:16" ht="30" x14ac:dyDescent="0.4">
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="N2" s="30" t="s">
+      <c r="N2" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="O2" s="30"/>
-      <c r="P2" s="30"/>
+      <c r="O2" s="27"/>
+      <c r="P2" s="27"/>
     </row>
     <row r="3" spans="1:16" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="31" t="s">
+      <c r="G3" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="31"/>
-      <c r="J3" s="9" t="s">
+      <c r="H3" s="28"/>
+      <c r="J3" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="N3" s="30"/>
-      <c r="O3" s="30"/>
-      <c r="P3" s="30"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="27"/>
+      <c r="P3" s="27"/>
     </row>
     <row r="4" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="N4" s="30"/>
-      <c r="O4" s="30"/>
-      <c r="P4" s="30"/>
+      <c r="N4" s="27"/>
+      <c r="O4" s="27"/>
+      <c r="P4" s="27"/>
     </row>
     <row r="5" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="N5" s="30"/>
-      <c r="O5" s="30"/>
-      <c r="P5" s="30"/>
+      <c r="N5" s="27"/>
+      <c r="O5" s="27"/>
+      <c r="P5" s="27"/>
     </row>
     <row r="16" spans="1:16" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="O16" s="29" t="s">
+      <c r="O16" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="P16" s="29"/>
+      <c r="P16" s="26"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="D25" s="10" t="s">
+      <c r="D25" s="9" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:16" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="G26" s="7"/>
-      <c r="H26" s="8" t="s">
+      <c r="H26" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="I26" s="7"/>
-      <c r="L26" s="32" t="s">
+      <c r="L26" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="M26" s="33"/>
-      <c r="N26" s="33"/>
-      <c r="O26" s="33"/>
-      <c r="P26" s="33"/>
+      <c r="M26" s="30"/>
+      <c r="N26" s="30"/>
+      <c r="O26" s="30"/>
+      <c r="P26" s="30"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="L27" s="33"/>
-      <c r="M27" s="33"/>
-      <c r="N27" s="33"/>
-      <c r="O27" s="33"/>
-      <c r="P27" s="33"/>
+      <c r="L27" s="30"/>
+      <c r="M27" s="30"/>
+      <c r="N27" s="30"/>
+      <c r="O27" s="30"/>
+      <c r="P27" s="30"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="L28" s="33"/>
-      <c r="M28" s="33"/>
-      <c r="N28" s="33"/>
-      <c r="O28" s="33"/>
-      <c r="P28" s="33"/>
+      <c r="L28" s="30"/>
+      <c r="M28" s="30"/>
+      <c r="N28" s="30"/>
+      <c r="O28" s="30"/>
+      <c r="P28" s="30"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
@@ -13022,7 +13504,7 @@
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A33" s="11" t="s">
+      <c r="A33" s="10" t="s">
         <v>29</v>
       </c>
       <c r="B33" t="s">
@@ -13040,12 +13522,12 @@
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B36" s="12" t="s">
+      <c r="B36" s="11" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A38" s="11" t="s">
+      <c r="A38" s="10" t="s">
         <v>30</v>
       </c>
       <c r="B38" t="s">
@@ -13063,7 +13545,7 @@
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A42" s="11" t="s">
+      <c r="A42" s="10" t="s">
         <v>37</v>
       </c>
       <c r="B42" t="s">
@@ -13081,7 +13563,7 @@
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A46" s="13" t="s">
+      <c r="A46" s="12" t="s">
         <v>45</v>
       </c>
       <c r="B46" t="s">
@@ -13089,7 +13571,7 @@
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B47" s="12" t="s">
+      <c r="B47" s="11" t="s">
         <v>48</v>
       </c>
     </row>
@@ -13104,7 +13586,7 @@
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A51" s="11" t="s">
+      <c r="A51" s="10" t="s">
         <v>50</v>
       </c>
       <c r="B51" t="s">
@@ -13122,7 +13604,7 @@
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A55" s="11" t="s">
+      <c r="A55" s="10" t="s">
         <v>54</v>
       </c>
       <c r="B55" t="s">
@@ -13145,7 +13627,7 @@
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A60" s="11" t="s">
+      <c r="A60" s="10" t="s">
         <v>58</v>
       </c>
       <c r="B60" t="s">
@@ -13168,7 +13650,7 @@
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A65" s="11" t="s">
+      <c r="A65" s="10" t="s">
         <v>63</v>
       </c>
       <c r="B65" t="s">
@@ -13201,7 +13683,7 @@
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A72" s="11" t="s">
+      <c r="A72" s="10" t="s">
         <v>70</v>
       </c>
       <c r="B72" t="s">
@@ -13219,7 +13701,7 @@
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A76" s="11" t="s">
+      <c r="A76" s="10" t="s">
         <v>73</v>
       </c>
       <c r="B76" t="s">
@@ -13237,7 +13719,7 @@
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A80" s="11" t="s">
+      <c r="A80" s="10" t="s">
         <v>78</v>
       </c>
       <c r="B80" t="s">
@@ -13260,7 +13742,7 @@
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A85" s="11" t="s">
+      <c r="A85" s="10" t="s">
         <v>82</v>
       </c>
       <c r="B85" t="s">
@@ -13278,7 +13760,7 @@
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A89" s="11" t="s">
+      <c r="A89" s="10" t="s">
         <v>86</v>
       </c>
       <c r="B89" t="s">
@@ -13296,7 +13778,7 @@
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A93" s="11" t="s">
+      <c r="A93" s="10" t="s">
         <v>90</v>
       </c>
       <c r="B93" t="s">
@@ -13329,7 +13811,7 @@
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A100" s="11" t="s">
+      <c r="A100" s="10" t="s">
         <v>97</v>
       </c>
       <c r="B100" t="s">
@@ -13357,7 +13839,7 @@
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A106" s="11" t="s">
+      <c r="A106" s="10" t="s">
         <v>103</v>
       </c>
       <c r="B106" t="s">
@@ -13380,7 +13862,7 @@
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="C110" s="11" t="s">
+      <c r="C110" s="10" t="s">
         <v>108</v>
       </c>
       <c r="D110" t="s">
@@ -13388,50 +13870,50 @@
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="C111" s="11" t="s">
+      <c r="C111" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="D111" s="14">
+      <c r="D111" s="13">
         <v>116</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="C112" s="11" t="s">
+      <c r="C112" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="D112" s="14">
+      <c r="D112" s="13">
         <v>201</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="C113" s="11" t="s">
+      <c r="C113" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="D113" s="14">
+      <c r="D113" s="13">
         <v>98</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="C114" s="11" t="s">
+      <c r="C114" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="D114" s="14">
+      <c r="D114" s="13">
         <v>105</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="C115" s="11" t="s">
+      <c r="C115" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="D115" s="14">
+      <c r="D115" s="13">
         <v>113</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="C116" s="11" t="s">
+      <c r="C116" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="D116" s="14">
+      <c r="D116" s="13">
         <v>198</v>
       </c>
     </row>
@@ -13451,33 +13933,33 @@
       </c>
     </row>
     <row r="137" spans="16:18" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="P137" s="31" t="s">
+      <c r="P137" s="28" t="s">
         <v>270</v>
       </c>
-      <c r="Q137" s="31"/>
-      <c r="R137" s="31"/>
+      <c r="Q137" s="28"/>
+      <c r="R137" s="28"/>
     </row>
     <row r="138" spans="16:18" x14ac:dyDescent="0.4">
-      <c r="P138" s="31"/>
-      <c r="Q138" s="31"/>
-      <c r="R138" s="31"/>
+      <c r="P138" s="28"/>
+      <c r="Q138" s="28"/>
+      <c r="R138" s="28"/>
     </row>
     <row r="150" spans="1:10" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="C150" s="23" t="s">
+      <c r="C150" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="G150" s="30" t="s">
+      <c r="G150" s="27" t="s">
         <v>272</v>
       </c>
-      <c r="H150" s="31"/>
-      <c r="I150" s="31"/>
-      <c r="J150" s="31"/>
+      <c r="H150" s="28"/>
+      <c r="I150" s="28"/>
+      <c r="J150" s="28"/>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="G151" s="31"/>
-      <c r="H151" s="31"/>
-      <c r="I151" s="31"/>
-      <c r="J151" s="31"/>
+      <c r="G151" s="28"/>
+      <c r="H151" s="28"/>
+      <c r="I151" s="28"/>
+      <c r="J151" s="28"/>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A153" t="s">
@@ -13490,7 +13972,7 @@
       </c>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A156" s="11" t="s">
+      <c r="A156" s="10" t="s">
         <v>29</v>
       </c>
       <c r="B156" t="s">
@@ -13518,7 +14000,7 @@
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A162" s="11" t="s">
+      <c r="A162" s="10" t="s">
         <v>283</v>
       </c>
       <c r="B162" t="s">
@@ -13541,7 +14023,7 @@
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A167" s="11" t="s">
+      <c r="A167" s="10" t="s">
         <v>288</v>
       </c>
       <c r="B167" t="s">
@@ -13559,7 +14041,7 @@
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A171" s="11" t="s">
+      <c r="A171" s="10" t="s">
         <v>292</v>
       </c>
       <c r="B171" t="s">
@@ -13582,7 +14064,7 @@
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A176" s="11" t="s">
+      <c r="A176" s="10" t="s">
         <v>297</v>
       </c>
       <c r="B176" t="s">
@@ -13605,7 +14087,7 @@
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A181" s="11" t="s">
+      <c r="A181" s="10" t="s">
         <v>301</v>
       </c>
       <c r="B181" t="s">
@@ -13636,36 +14118,36 @@
       <c r="A189" t="s">
         <v>306</v>
       </c>
-      <c r="E189" s="29" t="s">
+      <c r="E189" s="26" t="s">
         <v>273</v>
       </c>
-      <c r="F189" s="29"/>
-      <c r="G189" s="29"/>
-      <c r="H189" s="29"/>
+      <c r="F189" s="26"/>
+      <c r="G189" s="26"/>
+      <c r="H189" s="26"/>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="E190" s="29"/>
-      <c r="F190" s="29"/>
-      <c r="G190" s="29"/>
-      <c r="H190" s="29"/>
+      <c r="E190" s="26"/>
+      <c r="F190" s="26"/>
+      <c r="G190" s="26"/>
+      <c r="H190" s="26"/>
     </row>
     <row r="224" spans="2:12" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="B224" s="23" t="s">
+      <c r="B224" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="F224" s="30" t="s">
+      <c r="F224" s="27" t="s">
         <v>275</v>
       </c>
-      <c r="G224" s="31"/>
-      <c r="H224" s="31"/>
-      <c r="L224" s="24" t="s">
+      <c r="G224" s="28"/>
+      <c r="H224" s="28"/>
+      <c r="L224" s="21" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="F225" s="31"/>
-      <c r="G225" s="31"/>
-      <c r="H225" s="31"/>
+      <c r="F225" s="28"/>
+      <c r="G225" s="28"/>
+      <c r="H225" s="28"/>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A227" t="s">
@@ -13678,7 +14160,7 @@
       </c>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A230" s="11" t="s">
+      <c r="A230" s="10" t="s">
         <v>29</v>
       </c>
       <c r="B230" t="s">
@@ -13701,7 +14183,7 @@
       </c>
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A235" s="11" t="s">
+      <c r="A235" s="10" t="s">
         <v>283</v>
       </c>
       <c r="B235" t="s">
@@ -13724,7 +14206,7 @@
       </c>
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A240" s="11" t="s">
+      <c r="A240" s="10" t="s">
         <v>288</v>
       </c>
       <c r="B240" t="s">
@@ -13757,7 +14239,7 @@
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A247" s="11" t="s">
+      <c r="A247" s="10" t="s">
         <v>318</v>
       </c>
       <c r="B247" t="s">
@@ -13790,7 +14272,7 @@
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A254" s="11" t="s">
+      <c r="A254" s="10" t="s">
         <v>324</v>
       </c>
       <c r="B254" t="s">
@@ -13828,7 +14310,7 @@
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A262" s="11" t="s">
+      <c r="A262" s="10" t="s">
         <v>301</v>
       </c>
       <c r="B262" t="s">
@@ -13846,7 +14328,7 @@
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A266" s="11" t="s">
+      <c r="A266" s="10" t="s">
         <v>330</v>
       </c>
       <c r="B266" t="s">
@@ -13894,7 +14376,7 @@
       </c>
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A276" s="11" t="s">
+      <c r="A276" s="10" t="s">
         <v>337</v>
       </c>
       <c r="B276" t="s">
@@ -13940,14 +14422,14 @@
       <c r="A285" t="s">
         <v>348</v>
       </c>
-      <c r="B285" s="25" t="s">
+      <c r="B285" s="22" t="s">
         <v>349</v>
       </c>
-      <c r="C285" s="25"/>
-      <c r="D285" s="25"/>
-      <c r="E285" s="25"/>
-      <c r="F285" s="25"/>
-      <c r="G285" s="25"/>
+      <c r="C285" s="22"/>
+      <c r="D285" s="22"/>
+      <c r="E285" s="22"/>
+      <c r="F285" s="22"/>
+      <c r="G285" s="22"/>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A319" t="s">
@@ -14004,7 +14486,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:F9"/>
   <sheetViews>
@@ -14019,7 +14501,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="16" t="s">
         <v>259</v>
       </c>
       <c r="B1" t="s">
@@ -14027,15 +14509,15 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="16" t="s">
         <v>257</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="16" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="16" t="s">
         <v>255</v>
       </c>
       <c r="B4" t="s">
@@ -14055,102 +14537,102 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="13" t="s">
         <v>251</v>
       </c>
-      <c r="B5" s="17">
+      <c r="B5">
         <v>3</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C5">
         <v>4</v>
       </c>
-      <c r="D5" s="17">
+      <c r="D5">
         <v>6</v>
       </c>
-      <c r="E5" s="17">
+      <c r="E5">
         <v>3</v>
       </c>
-      <c r="F5" s="17">
+      <c r="F5">
         <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="13" t="s">
         <v>250</v>
       </c>
-      <c r="B6" s="17">
+      <c r="B6">
         <v>6</v>
       </c>
-      <c r="C6" s="17">
+      <c r="C6">
         <v>8</v>
       </c>
-      <c r="D6" s="17">
+      <c r="D6">
         <v>14</v>
       </c>
-      <c r="E6" s="17">
+      <c r="E6">
         <v>9</v>
       </c>
-      <c r="F6" s="17">
+      <c r="F6">
         <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="13" t="s">
         <v>249</v>
       </c>
-      <c r="B7" s="17">
+      <c r="B7">
         <v>5</v>
       </c>
-      <c r="C7" s="17">
+      <c r="C7">
         <v>9</v>
       </c>
-      <c r="D7" s="17">
+      <c r="D7">
         <v>15</v>
       </c>
-      <c r="E7" s="17">
+      <c r="E7">
         <v>8</v>
       </c>
-      <c r="F7" s="17">
+      <c r="F7">
         <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="13" t="s">
         <v>248</v>
       </c>
-      <c r="B8" s="17">
+      <c r="B8">
         <v>0</v>
       </c>
-      <c r="C8" s="17">
+      <c r="C8">
         <v>3</v>
       </c>
-      <c r="D8" s="17">
+      <c r="D8">
         <v>6</v>
       </c>
-      <c r="E8" s="17">
+      <c r="E8">
         <v>3</v>
       </c>
-      <c r="F8" s="17">
+      <c r="F8">
         <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="13" t="s">
         <v>247</v>
       </c>
-      <c r="B9" s="17">
+      <c r="B9">
         <v>14</v>
       </c>
-      <c r="C9" s="17">
+      <c r="C9">
         <v>24</v>
       </c>
-      <c r="D9" s="17">
+      <c r="D9">
         <v>41</v>
       </c>
-      <c r="E9" s="17">
+      <c r="E9">
         <v>23</v>
       </c>
-      <c r="F9" s="17">
+      <c r="F9">
         <v>102</v>
       </c>
     </row>
